--- a/MarsSeleniumStandard/ExcelData/TestData.xlsx
+++ b/MarsSeleniumStandard/ExcelData/TestData.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khushbu Prajapati\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHUSHBU\TESTING\PROJECTS\MarsSeleniumStandard\MarsSeleniumStandard\MarsSeleniumStandard\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60781D45-BE53-4073-B337-A541428E585F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ECB393-7C0F-43D3-AE74-D44A1D544E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignUp" sheetId="3" r:id="rId1"/>
-    <sheet name="&quot;ManageListings" sheetId="5" r:id="rId2"/>
-    <sheet name="EditShareSkill" sheetId="6" r:id="rId3"/>
-    <sheet name="SignIn" sheetId="1" r:id="rId4"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="SignUp" sheetId="3" r:id="rId2"/>
+    <sheet name="ManageListings" sheetId="5" r:id="rId3"/>
+    <sheet name="EditShareSkill" sheetId="6" r:id="rId4"/>
     <sheet name="ShareSkill" sheetId="4" r:id="rId5"/>
     <sheet name="Profile" sheetId="2" r:id="rId6"/>
   </sheets>
@@ -610,6 +610,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -670,12 +718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C435061D-5197-4A8C-9AE0-B97AB37D0BF9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,7 +753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2C0763-148D-4F1B-AC04-51789190BC64}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -824,54 +872,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/MarsSeleniumStandard/ExcelData/TestData.xlsx
+++ b/MarsSeleniumStandard/ExcelData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHUSHBU\TESTING\PROJECTS\MarsSeleniumStandard\MarsSeleniumStandard\MarsSeleniumStandard\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ECB393-7C0F-43D3-AE74-D44A1D544E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F77EE3D-0FB1-42D4-AD4E-2FF2CBB19D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,12 +272,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -613,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -757,66 +764,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2C0763-148D-4F1B-AC04-51789190BC64}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="42.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="8" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -880,16 +897,26 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -899,46 +926,46 @@
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1002,7 +1029,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
